--- a/statistical_analysis/results/results.xlsx
+++ b/statistical_analysis/results/results.xlsx
@@ -473,22 +473,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.2</v>
+        <v>122.9</v>
       </c>
       <c r="C2" t="n">
-        <v>3.700917303708485</v>
+        <v>1.675987271232491</v>
       </c>
       <c r="D2" t="n">
-        <v>99.925</v>
+        <v>121.675</v>
       </c>
       <c r="E2" t="n">
-        <v>105.425</v>
+        <v>123.825</v>
       </c>
       <c r="F2" t="n">
-        <v>91.67499999999998</v>
+        <v>118.45</v>
       </c>
       <c r="G2" t="n">
-        <v>108.175</v>
+        <v>124.9</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.25</v>
+        <v>124.15</v>
       </c>
       <c r="C3" t="n">
-        <v>1.788897860571016</v>
+        <v>2.06286949552209</v>
       </c>
       <c r="D3" t="n">
-        <v>103.925</v>
+        <v>123.175</v>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>125.825</v>
       </c>
       <c r="F3" t="n">
-        <v>100.8125</v>
+        <v>119.2</v>
       </c>
       <c r="G3" t="n">
-        <v>107.0375</v>
+        <v>127.15</v>
       </c>
     </row>
     <row r="4">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.2</v>
+        <v>122.65</v>
       </c>
       <c r="C4" t="n">
-        <v>2.444583581898743</v>
+        <v>1.784329161213131</v>
       </c>
       <c r="D4" t="n">
-        <v>100.975</v>
+        <v>121.4</v>
       </c>
       <c r="E4" t="n">
-        <v>105.1</v>
+        <v>123.675</v>
       </c>
       <c r="F4" t="n">
-        <v>94.78749999999999</v>
+        <v>117.9875</v>
       </c>
       <c r="G4" t="n">
-        <v>107.1625</v>
+        <v>124.8125</v>
       </c>
     </row>
     <row r="5">
